--- a/Examples/Data/SmartMarkers/AddCustomLabels/SmartMarker_Designer.xlsx
+++ b/Examples/Data/SmartMarkers/AddCustomLabels/SmartMarker_Designer.xlsx
@@ -1,43 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DotNet Projects\Aspose\Official\Aspose_Cells_NET\Examples\Data\SmartMarkers\AddCustomLabels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2978785-B62B-4027-BEB4-9271707B08D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="1740" windowWidth="14940" windowHeight="9225"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Raw Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Canvas.Date">'Raw Data'!$A$7</definedName>
-    <definedName name="Canvas.Month">'Raw Data'!$A$8</definedName>
-    <definedName name="Canvas.OrganizationId">'Raw Data'!$A$9</definedName>
-    <definedName name="debug">'Raw Data'!$A$10</definedName>
-    <definedName name="Session.CountryCode">'Raw Data'!$A$6</definedName>
-    <definedName name="Session.Culture">'Raw Data'!$A$4</definedName>
-    <definedName name="Session.LanguageCode">'Raw Data'!$A$5</definedName>
-    <definedName name="UserId">'Raw Data'!$A$3</definedName>
+    <definedName name="Canvas.Date">#REF!</definedName>
+    <definedName name="Canvas.Month">#REF!</definedName>
+    <definedName name="Canvas.OrganizationId">#REF!</definedName>
+    <definedName name="debug">#REF!</definedName>
+    <definedName name="Session.CountryCode">#REF!</definedName>
+    <definedName name="Session.Culture">#REF!</definedName>
+    <definedName name="Session.LanguageCode">#REF!</definedName>
+    <definedName name="UserId">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Order Details</t>
-  </si>
-  <si>
-    <t>OrderID</t>
-  </si>
-  <si>
-    <t>UnitPrice</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -54,9 +47,6 @@
     <t>Asset Class</t>
   </si>
   <si>
-    <t>&amp;=Report.[Asset Class](Group:Repeat)</t>
-  </si>
-  <si>
     <t>Reported Cost</t>
   </si>
   <si>
@@ -73,20 +63,22 @@
   </si>
   <si>
     <t>&amp;=subtotal9:Report.Year&amp;Report.[Asset Class]</t>
+  </si>
+  <si>
+    <t>&amp;=Report.[Asset Class]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,12 +87,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -147,13 +133,13 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -164,32 +150,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma" xfId="4"/>
-    <cellStyle name="Comma [0]" xfId="5"/>
-    <cellStyle name="Currency" xfId="2"/>
-    <cellStyle name="Currency [0]" xfId="3"/>
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -514,11 +495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -532,301 +513,49 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="D3" s="11" t="s">
-        <v>14</v>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:E45"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
-        <v>10248</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" s="8">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="8">
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26">
-        <v>27</v>
-      </c>
-      <c r="C26" s="8">
-        <v>58.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
-        <v>10257</v>
-      </c>
-      <c r="B28">
-        <v>9</v>
-      </c>
-      <c r="C28" s="8">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29">
-        <v>40</v>
-      </c>
-      <c r="C29" s="8">
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30">
-        <v>49</v>
-      </c>
-      <c r="C30" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
-        <v>10259</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32" s="8">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33">
-        <v>35</v>
-      </c>
-      <c r="C33" s="8">
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34">
-        <v>15</v>
-      </c>
-      <c r="C34" s="8">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35">
-        <v>60</v>
-      </c>
-      <c r="C35" s="8">
-        <v>68.900000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>10242</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" s="8">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38">
-        <v>15</v>
-      </c>
-      <c r="C38" s="8">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39">
-        <v>20</v>
-      </c>
-      <c r="C39" s="8">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40">
-        <v>41</v>
-      </c>
-      <c r="C40" s="8">
-        <v>49.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
-        <v>10252</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42" s="8">
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43">
-        <v>25</v>
-      </c>
-      <c r="C43" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44">
-        <v>40</v>
-      </c>
-      <c r="C44" s="8">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45">
-        <v>105</v>
-      </c>
-      <c r="C45" s="8">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A42:A45"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>